--- a/base_de_données_caissiers_et_managers.xlsx
+++ b/base_de_données_caissiers_et_managers.xlsx
@@ -64,7 +64,7 @@
     <t xml:space="preserve">93200</t>
   </si>
   <si>
-    <t xml:space="preserve">Memouna02.</t>
+    <t xml:space="preserve">Mohan02.</t>
   </si>
   <si>
     <t xml:space="preserve">C00001</t>
@@ -434,10 +434,10 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="30.02"/>
   </cols>
